--- a/medicine/Enfance/Gisèle_Cavali/Gisèle_Cavali.xlsx
+++ b/medicine/Enfance/Gisèle_Cavali/Gisèle_Cavali.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gis%C3%A8le_Cavali</t>
+          <t>Gisèle_Cavali</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gisèle Cavali est un écrivaine française, né à Moyeuvre[Lequel ?] (Moselle) en 1955.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gis%C3%A8le_Cavali</t>
+          <t>Gisèle_Cavali</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gisèle Cavali, née en Moselle. Elle a écrit plusieurs ouvrages pour la jeunesse en collaboration avec son amie Brigitte Aubert qu'elle connaît depuis le collège.
 Elle a été aussi ouvreuse, animatrice de radio libre ou encore décoratrice pour le cinéma (ayant participé à Le Médecin des Lumières de René Allio, et signé les décors de: Transit (en 1990), Les équilibristes (en 1992) et Péché véniel... péché mortel... (en 1995).
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gis%C3%A8le_Cavali</t>
+          <t>Gisèle_Cavali</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,25 +560,147 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans pour la jeunesse (coécrits avec Brigitte Aubert)
-Saga "Les Cavaliers des Lumières"
-Le Règne de la Barbarie. Paris : Plon jeunesse, 2008, 301 p. (Collection Heroic) -  (ISBN 978-2-259-20773-7)
-La Voie des chimères. Paris : Plon jeunesse, novembre 2008.
-Série "Les Trois Scotch"
-1-Cauchemar dans la crypte
+          <t>Romans pour la jeunesse (coécrits avec Brigitte Aubert)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Saga "Les Cavaliers des Lumières"</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Règne de la Barbarie. Paris : Plon jeunesse, 2008, 301 p. (Collection Heroic) -  (ISBN 978-2-259-20773-7)
+La Voie des chimères. Paris : Plon jeunesse, novembre 2008.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gisèle_Cavali</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gis%C3%A8le_Cavali</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse (coécrits avec Brigitte Aubert)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série "Les Trois Scotch"</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1-Cauchemar dans la crypte
 ill. Gaëtan de Séguin. Paris : Magnard jeunesse, 2001, 47 p. (Les p'tits policiers) -  (ISBN 2-210-98059-3)
 Ill. Marie-Geneviève Thoisy. Étampes : Lire c'est partir, 2006, 59 p. -  (ISBN 2-35024-036-3)
 2- L’Assassin habite en face
 ill. Clément Oubrerie. Paris : Magnard jeunesse, 2002, 47 p. (Les p'tits policiers ; 12).  (ISBN 2-210-98080-1)
-ill. Gaëtan de Seguin. Paris : Magnard jeunesse, 2004, 47 p. (Tipik cadet : policier ; 9).  (ISBN 2-210-98355-X)
-Série "Duo de choc"
-1- Témoin sur vidéo
+ill. Gaëtan de Seguin. Paris : Magnard jeunesse, 2004, 47 p. (Tipik cadet : policier ; 9).  (ISBN 2-210-98355-X)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gisèle_Cavali</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gis%C3%A8le_Cavali</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse (coécrits avec Brigitte Aubert)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série "Duo de choc"</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1- Témoin sur vidéo
 ill. Bart. Paris : Magnard jeunesse, 2002, 134 p. (Les policiers ; 3).  (ISBN 2-210-98428-9)
 Paris : Magnard jeunesse, 2004, 138 p. (Tipik junior : policier ; 8).  (ISBN 2-210-98471-8)
 2- La Mort sous contrat
-Paris : Magnard jeunesse, 2004, 165 p. (Tipik junior : policier ; 28).  (ISBN 2-210-98459-9)
-Autres romans
-Le Mensonge
+Paris : Magnard jeunesse, 2004, 165 p. (Tipik junior : policier ; 28).  (ISBN 2-210-98459-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gisèle_Cavali</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gis%C3%A8le_Cavali</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse (coécrits avec Brigitte Aubert)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Mensonge
 Ill. Frédéric Rébéna. Dans Je Bouquine, Bayard Presse, octobre 1997, no 164, p. 21-64.
 Rééd. sous le titre Le Mensonge de mon père. Ill. Faujour. Morsang-sur-Orge : Lire c'est partir, 2004, 93 p.  (ISBN 2-35024-002-9)
 Passagère sans retour (roman policier)
@@ -582,11 +718,79 @@
 Paris : Rageot, 2006, 104 p. (Heure noire).  (ISBN 2-7002-3126-0)
 Vague de panique (roman policier)
 Paris : coéd. SNCF - Gallimard jeunesse, février 2009, 95 p. (Voyage en page, no 19).  (ISBN 978-2-07-062181-1)
-Panique aux urgences
-Romans
-Rêve d’Or. Paris : Éd. Libre Expression au Québec, 2001.
-Nouvelles
-Le Baiser de l’araignée (chap. d’un cadavre exquis à connotation fantastique, écrit avec Brigitte Aubert).
+Panique aux urgences</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gisèle_Cavali</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gis%C3%A8le_Cavali</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Rêve d’Or. Paris : Éd. Libre Expression au Québec, 2001.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gisèle_Cavali</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gis%C3%A8le_Cavali</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le Baiser de l’araignée (chap. d’un cadavre exquis à connotation fantastique, écrit avec Brigitte Aubert).
 In 13, passage Gachimpega : 13000 Marseille, roman collectif. Nice : les Éd. du Ricochet, 1998, p. 53-81 (chap. 9). (Les 13 voies du Ricochet).  (ISBN 2-911013-16-6)
 Régate Sanglante
 In 25 jours en mer : 6 histoires de voile, anthologie. Paris : Fleurus, 2001, p. 123-149. (Z'azimut).  (ISBN 2-215-05177-9) . Réimpr. 2006.
@@ -602,31 +806,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Gis%C3%A8le_Cavali</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gis%C3%A8le_Cavali</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gisèle_Cavali</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gis%C3%A8le_Cavali</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Théâtrographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Décoratrice et costumière
 Dictature in blue (1982). Théâtre M.J.C. Picaud (Cannes). Déc. et cost. : Gisèle Cavali. Distrib. : Lorédane Lavattiata et Frédéric Goacolou.
@@ -638,73 +844,148 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Gis%C3%A8le_Cavali</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gis%C3%A8le_Cavali</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Gisèle_Cavali</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gis%C3%A8le_Cavali</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Radiothéâtrographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Une dette égale une vie. Émission "Nuit Noire" sur France Inter.</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Gis%C3%A8le_Cavali</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gis%C3%A8le_Cavali</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gisèle_Cavali</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gis%C3%A8le_Cavali</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Réalisation de longs métrages
-Il n’y a aucune raison précise pour que je tremble ainsi (1982). Réal. : Gisèle Cavali. Scén. et dial. : Gisèle Cavali et Brigitte Aubert. Interp. : Brigitte Aubert (Marilyn Monroe).
-Réalisation de courts métrages
-Les Sept sourires du démon (1986). Réal. : Gisèle Cavali. Scén. et dial. : Brigitte Aubert.
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Réalisation de longs métrages</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Il n’y a aucune raison précise pour que je tremble ainsi (1982). Réal. : Gisèle Cavali. Scén. et dial. : Gisèle Cavali et Brigitte Aubert. Interp. : Brigitte Aubert (Marilyn Monroe).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Gisèle_Cavali</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gis%C3%A8le_Cavali</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Réalisation de courts métrages</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Les Sept sourires du démon (1986). Réal. : Gisèle Cavali. Scén. et dial. : Brigitte Aubert.
 Quality Star (1987). Réal. : Gisèle Cavali. Scén. et dial. : Brigitte Aubert.
 Nuits noires (1988). Réal. : Gisèle Cavali. Scén. : Brigitte Aubert d’après sa nouvelle homonyme. Photographie : Jean-Claude Bois. Musique : Henri Roger. Montage : Mariette Gutherz. Décors : Bruno Joly. Son : Jean-Luc Vergé. Durée : 22 min. Interp. : Philippe Cord'Homme (l’aveugle), Jean-Paul Wenzel (l’inspecteur), Jean-Charles Dumay (l’adjoint), Marie-Paule Sirvent (la prostituée), Eliane Montéagudo (la serveuse), Mila Apalteguy (la petite fille), Jahoued Abd el Krim (le petit garçon).
 Liberté Marseille (1990). Prod. : RN7 productions. Réal. : Gisèle Cavali. Scén. : G. Cavali et Brigitte Aubert. Dial. : Brigitte Aubert. Image : Jean Claude Bois. Son : Patrick Alex. Montage : Mariette Guthierz. Interp. : Dominique Guilhard et Orazio Massaro.
 Échappée belle(1991). Réal. : Gisèle Cavali. Scén. et dial. : Brigitte Aubert.
-Otac le père (1992). Film novélisé sous le titre Le Mensonge (Je Bouquine, 1997). Prod. : RN7 productions. Réal. : Gisèle Cavali. Scén. : G. Cavali et B. Aubert. Dial. : B. Aubert. Image : Jean Claude Bois. Son : Patrick Alex. Montage : Mariette Guthierz. Durée : 14 min. Interp. : Duro Hinic et Lioubicha Medar.
-Décoratrice de films
-1988 : Un médecin des Lumières. Réal. et scén. : René Allio. Réalisé en 1987.
+Otac le père (1992). Film novélisé sous le titre Le Mensonge (Je Bouquine, 1997). Prod. : RN7 productions. Réal. : Gisèle Cavali. Scén. : G. Cavali et B. Aubert. Dial. : B. Aubert. Image : Jean Claude Bois. Son : Patrick Alex. Montage : Mariette Guthierz. Durée : 14 min. Interp. : Duro Hinic et Lioubicha Medar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Gisèle_Cavali</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gis%C3%A8le_Cavali</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Décoratrice de films</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1988 : Un médecin des Lumières. Réal. et scén. : René Allio. Réalisé en 1987.
 1991 : Transit. Réal. et scén. : René Allio / Scén. : René Allio et Jean Jourdheuil / Auteur de l’œuvre originale : Anna Seghers / Dial. : René Allio / Soc. de prod. : Paris Classics Productions, Actions Films (Paris), FR3 Cinéma, La Sept Cinéma, SFP Cinéma, ZDF-Zweites Deutsches Fernsehen / Prod. délégué : Humbert Balsan / Distrib. d’origine : Les Films du Sémaphore / Dir. photo : Richard Copans / Ingénieur du son : Olivier Schwob / Compositeur mus. : Georges Bœuf / Décors : Gisèle Cavali et Sylvie Deldon / Mont. : Marie-Hélène Quinton / Interp. : Sebastian Koch (Gerhardt), Claudia Messner (Marie), Rüdiger Vogler (le docteur), Magali Leiris (Nadine), Paul Allio (Georges Binnet), Nicole Dogué (Claudine), Ludwig Boettger (Strobel), Dominique Horwitz (le petit légionnaire), Hans Diehl (Heinz), Günter Lampe (l’homme chauve). Réalisé en 1990.
 1991 : Les équilibristes. Réal. et scén. : Nico Papatakis / Soc. de prod. : Paris Classics Productions, La Sept Cinéma, Chevereau production, FR3 Cinéma, Caroline Productions / Prod. délégué : Humbert Balsan / Distrib. d’origine : Les Acacias Ciné Audience / Dir. photo : William Lubtchansky / Ingénieur son : Laurent Lafran / Compositeur mus. : Bruno Coulais, Gabriel Fauré / Décors : Gisèle Cavali, Sylvie Deldon et Nico Meletopoulos / Mont. : Delphine Desfons / Interp. : Michel Piccoli (Marcel Spadice), Lilah Dadi (Franz-Ali Aoussine), Polly Walker (Hélène Lagache), Patrick Mille (Freddy Babitchev), Juliette Degenne (Jacqueline Masset), Laurent Hennequin (le soldat), Olivier Pajot (Diekmann), Emiliano Suarez (directeur du cirque en tour), Michel Palmer (M. Loyal du cirque Imira), Bernard Farcy (policier au commissariat), Guy Louret (agent auxiliaire Rouquet). Réalisé en 1991.
 1995 : Péché véniel, péché mortel. Réal. et scén. : Pomme Meffre / Soc. de prod. : Les Productions Desmichelle, Groupe TSF, Images et Trames, Test / Prod. délégué : Hugues Desmichelle / Dir. prod. : Aurèle Giraud / Distrib. d’origine : Les Productions Desmichelle / Dir. photo : Guy Chabanis / Ingénieur son : Pascal Ribier / Compositeur mus. : Georges Raboll, Jean-Pierre Stora / Décors : Gisèle Cavali / Cost. : Nicole Bize / Assistant réal. : François Vantrou, Nicolas Picard / Monteur : François Berger-Garnault / Interp. : Nini Crépon (le récitant), Isabelle Sadoyan (Lola la grand-mère), Philippe Adrien (M. Feuillanbois), Brigitte Roüan (la mère Bonin), Anny Romand (la mère de Céline), Maya Vignando (Odette), Henri Meffre (Frantz), Joseph Cohen (Lionel), Jean Larroquette (M. Charret), Charlotte François (Mugette), Christiane Rorato (la charcutière), Maud Chabanis (Josette), Luce Froidevaux (une jongleuse), Béatrice Sebbah (la chanteuse), Huguette Kingue (Mme Lelièvre). Réalisé en 1993.</t>
